--- a/aat_whg-subset.xlsx
+++ b/aat_whg-subset.xlsx
@@ -1981,8 +1981,8 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4325,7 +4325,7 @@
         <v>300266060</v>
       </c>
       <c r="C118" s="10">
-        <v>300386845</v>
+        <v>300008850</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>348</v>

--- a/aat_whg-subset.xlsx
+++ b/aat_whg-subset.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/linked-places/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD9B04-7D6A-A348-A16C-D1BC77A4AEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="720" windowWidth="26160" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="1300" yWindow="720" windowWidth="26160" windowHeight="13540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aat concepts of interest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="476">
   <si>
     <t>addl parent</t>
   </si>
@@ -1446,13 +1447,22 @@
   </si>
   <si>
     <t>Designates land and water areas significantly altered or modified by human actions; used in contrast to "natural landscapes," that designate areas where human effects, if present, are not ecologically significant to the regions as a whole.</t>
+  </si>
+  <si>
+    <t>kingdom</t>
+  </si>
+  <si>
+    <t>kingdoms</t>
+  </si>
+  <si>
+    <t>Administrative bodies subject to a king or queen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1710,6 +1720,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1977,15 +1990,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="16.1640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="70" customWidth="1"/>
@@ -1994,7 +2007,7 @@
     <col min="7" max="7" width="90.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="17" thickTop="1">
       <c r="C2" s="6">
         <v>300008346</v>
       </c>
@@ -2034,7 +2047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="10">
         <v>300261086</v>
       </c>
@@ -2057,7 +2070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="B4" s="10">
         <v>300008347</v>
       </c>
@@ -2077,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="10">
         <v>300008347</v>
       </c>
@@ -2097,7 +2110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="B6" s="10">
         <v>300008347</v>
       </c>
@@ -2117,7 +2130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7" s="10">
         <v>300008347</v>
       </c>
@@ -2137,7 +2150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="B8" s="10">
         <v>300008347</v>
       </c>
@@ -2157,7 +2170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="B9" s="10">
         <v>300008347</v>
       </c>
@@ -2177,7 +2190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="B10" s="10">
         <v>300008347</v>
       </c>
@@ -2197,7 +2210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="B11" s="10">
         <v>300008347</v>
       </c>
@@ -2217,7 +2230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="B12" s="10">
         <v>300008542</v>
       </c>
@@ -2237,7 +2250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13" s="10">
         <v>300008347</v>
       </c>
@@ -2257,7 +2270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="B14" s="10">
         <v>300008347</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15" s="10"/>
       <c r="C15" s="10">
         <v>300239103</v>
@@ -2295,7 +2308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="21" customFormat="1">
       <c r="B16" s="22">
         <v>300239103</v>
       </c>
@@ -2315,7 +2328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" s="21" customFormat="1">
       <c r="B17" s="22">
         <v>300182722</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="22">
         <v>300182722</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="C19" s="10">
         <v>300056006</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" s="21" customFormat="1">
       <c r="B20" s="22">
         <v>300056006</v>
       </c>
@@ -2392,7 +2405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="10">
         <v>300056006</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="C22" s="10">
         <v>300261086</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="10">
         <v>300261086</v>
       </c>
@@ -2449,7 +2462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" s="10">
         <v>300232420</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25" s="10">
         <v>300128207</v>
       </c>
@@ -2489,7 +2502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26" s="10">
         <v>300128207</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27" s="10">
         <v>300232420</v>
       </c>
@@ -2529,7 +2542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="B28" s="10">
         <v>300232420</v>
       </c>
@@ -2549,7 +2562,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29" s="10">
         <v>300232420</v>
       </c>
@@ -2569,7 +2582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30" s="10">
         <v>300261086</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31" s="10">
         <v>300235114</v>
       </c>
@@ -2609,7 +2622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="B32" s="10">
         <v>300235114</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="10">
         <v>300235118</v>
       </c>
@@ -2649,7 +2662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="10">
         <v>300235118</v>
       </c>
@@ -2669,7 +2682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="10">
         <v>300261086</v>
       </c>
@@ -2689,7 +2702,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="20">
         <v>300232418</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="17">
         <v>300236157</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="17">
         <v>300236157</v>
       </c>
@@ -2749,7 +2762,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="17">
         <v>300236157</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" s="17">
         <v>300236157</v>
       </c>
@@ -2789,7 +2802,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41" s="17">
         <v>300236157</v>
       </c>
@@ -2809,7 +2822,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42" s="17">
         <v>300236157</v>
       </c>
@@ -2829,7 +2842,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" s="10">
         <v>300261086</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="10">
         <v>300261086</v>
       </c>
@@ -2869,7 +2882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="10">
         <v>300261086</v>
       </c>
@@ -2889,7 +2902,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="10">
         <v>300261086</v>
       </c>
@@ -2909,7 +2922,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="10">
         <v>300261086</v>
       </c>
@@ -2929,2279 +2942,2297 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="10">
         <v>300261086</v>
       </c>
       <c r="C48" s="10">
-        <v>300235088</v>
+        <v>300235096</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>143</v>
+        <v>473</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="8">
-        <v>47</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="B49" s="10">
         <v>300261086</v>
       </c>
       <c r="C49" s="10">
-        <v>300387184</v>
+        <v>300235088</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="10">
-        <v>48</v>
+        <v>144</v>
+      </c>
+      <c r="F49" s="8">
+        <v>47</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="B50" s="10">
         <v>300261086</v>
       </c>
       <c r="C50" s="10">
-        <v>300235095</v>
+        <v>300387184</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F50" s="8">
-        <v>49</v>
+        <v>147</v>
+      </c>
+      <c r="F50" s="10">
+        <v>48</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="B51" s="10">
         <v>300261086</v>
       </c>
       <c r="C51" s="10">
-        <v>300235101</v>
+        <v>300235095</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="10">
-        <v>50</v>
+        <v>150</v>
+      </c>
+      <c r="F51" s="8">
+        <v>49</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="B52" s="10">
         <v>300261086</v>
       </c>
       <c r="C52" s="10">
-        <v>300235105</v>
+        <v>300235101</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="8">
-        <v>51</v>
+        <v>153</v>
+      </c>
+      <c r="F52" s="10">
+        <v>50</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="B53" s="10">
         <v>300261086</v>
       </c>
       <c r="C53" s="10">
-        <v>300235106</v>
+        <v>300235105</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="10">
-        <v>52</v>
+        <v>156</v>
+      </c>
+      <c r="F53" s="8">
+        <v>51</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="17">
-        <v>300236157</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="B54" s="10">
         <v>300261086</v>
       </c>
       <c r="C54" s="10">
+        <v>300235106</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="10">
+        <v>52</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="17">
+        <v>300236157</v>
+      </c>
+      <c r="B55" s="10">
+        <v>300261086</v>
+      </c>
+      <c r="C55" s="10">
         <v>300235099</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E55" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F55" s="8">
         <v>53</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G55" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C55" s="10">
+    <row r="56" spans="1:7">
+      <c r="C56" s="10">
         <v>300024979</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D56" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E56" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>54</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G56" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="10">
+    <row r="57" spans="1:7">
+      <c r="A57" s="20"/>
+      <c r="B57" s="10">
         <v>300024979</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C57" s="17">
         <v>300192630</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D57" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E57" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F57" s="8">
         <v>55</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G57" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39">
+    <row r="58" spans="1:7" s="21" customFormat="1">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39">
         <v>300192630</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C58" s="39">
         <v>300387171</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D58" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E58" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>56</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G58" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42">
+    <row r="59" spans="1:7" s="45" customFormat="1">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42">
         <v>300192630</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C59" s="42">
         <v>300386176</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F58" s="43">
+      <c r="F59" s="43">
         <v>57</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="G59" s="44" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C59" s="10">
+    <row r="60" spans="1:7">
+      <c r="C60" s="10">
         <v>300000201</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D60" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E60" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>58</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G60" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="10">
+    <row r="61" spans="1:7">
+      <c r="B61" s="10">
         <v>300000201</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C61" s="17">
         <v>300000202</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D61" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E61" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F61" s="8">
         <v>59</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G61" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="10">
+    <row r="62" spans="1:7">
+      <c r="B62" s="10">
         <v>300000202</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C62" s="10">
         <v>300000809</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D62" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E62" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>60</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G62" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="10">
-        <v>300000809</v>
-      </c>
-      <c r="C62" s="10">
-        <v>300000810</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="8">
-        <v>61</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="B63" s="10">
         <v>300000809</v>
       </c>
       <c r="C63" s="10">
-        <v>300387006</v>
+        <v>300000810</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" s="10">
-        <v>62</v>
+        <v>185</v>
+      </c>
+      <c r="F63" s="8">
+        <v>61</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="B64" s="10">
         <v>300000809</v>
       </c>
       <c r="C64" s="10">
-        <v>300387007</v>
+        <v>300387006</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" s="8">
-        <v>63</v>
+        <v>188</v>
+      </c>
+      <c r="F64" s="10">
+        <v>62</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="10">
         <v>300000809</v>
       </c>
       <c r="C65" s="10">
-        <v>300387000</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" s="10">
-        <v>64</v>
+        <v>300387007</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="8">
+        <v>63</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="B66" s="10">
         <v>300000809</v>
       </c>
       <c r="C66" s="10">
-        <v>300000835</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66" s="8">
-        <v>65</v>
+        <v>300387000</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" s="10">
+        <v>64</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="10">
         <v>300000809</v>
       </c>
       <c r="C67" s="10">
-        <v>300386998</v>
+        <v>300000835</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="10">
-        <v>66</v>
+        <v>197</v>
+      </c>
+      <c r="F67" s="8">
+        <v>65</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="10">
         <v>300000809</v>
       </c>
       <c r="C68" s="10">
-        <v>300263063</v>
+        <v>300386998</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="F68" s="8">
-        <v>67</v>
+        <v>200</v>
+      </c>
+      <c r="F68" s="10">
+        <v>66</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="B69" s="10">
         <v>300000809</v>
       </c>
       <c r="C69" s="10">
-        <v>300387268</v>
+        <v>300263063</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="10">
-        <v>68</v>
+        <v>203</v>
+      </c>
+      <c r="F69" s="8">
+        <v>67</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="B70" s="10">
         <v>300000809</v>
       </c>
       <c r="C70" s="10">
+        <v>300387268</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" s="10">
+        <v>68</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="10">
+        <v>300000809</v>
+      </c>
+      <c r="C71" s="10">
         <v>300387004</v>
       </c>
-      <c r="D70" s="34" t="s">
+      <c r="D71" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E71" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F71" s="8">
         <v>69</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G71" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="10">
-        <v>300000202</v>
-      </c>
-      <c r="C71" s="10">
-        <v>300266755</v>
-      </c>
-      <c r="D71" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="E71" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="10">
-        <v>70</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="B72" s="10">
         <v>300000202</v>
       </c>
       <c r="C72" s="10">
-        <v>300000277</v>
+        <v>300266755</v>
       </c>
       <c r="D72" s="50" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="F72" s="8">
-        <v>71</v>
+        <v>212</v>
+      </c>
+      <c r="F72" s="10">
+        <v>70</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="10">
         <v>300000202</v>
       </c>
       <c r="C73" s="10">
+        <v>300000277</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="8">
+        <v>71</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="10">
+        <v>300000202</v>
+      </c>
+      <c r="C74" s="10">
         <v>300164060</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D74" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E73" s="50" t="s">
+      <c r="E74" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>72</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G74" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="10">
-        <v>300164060</v>
-      </c>
-      <c r="C74">
-        <v>300000455</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F74" s="8">
-        <v>73</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="B75" s="10">
         <v>300164060</v>
       </c>
       <c r="C75">
+        <v>300000455</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="8">
+        <v>73</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="10">
+        <v>300164060</v>
+      </c>
+      <c r="C76">
         <v>300008439</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D76" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E76" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>74</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G76" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="10">
-        <v>300000202</v>
-      </c>
-      <c r="C76" s="10">
-        <v>300410262</v>
-      </c>
-      <c r="D76" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" s="8">
-        <v>75</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7">
       <c r="B77" s="10">
         <v>300000202</v>
       </c>
       <c r="C77" s="10">
-        <v>300417317</v>
+        <v>300410262</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="F77" s="10">
-        <v>76</v>
+        <v>227</v>
+      </c>
+      <c r="F77" s="8">
+        <v>75</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
       <c r="B78" s="10">
         <v>300000202</v>
       </c>
       <c r="C78" s="10">
-        <v>300263741</v>
+        <v>300417317</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="F78" s="8">
-        <v>77</v>
+        <v>230</v>
+      </c>
+      <c r="F78" s="10">
+        <v>76</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="10">
         <v>300000202</v>
       </c>
       <c r="C79" s="10">
+        <v>300263741</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="8">
+        <v>77</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="10">
+        <v>300000202</v>
+      </c>
+      <c r="C80" s="10">
         <v>300000678</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D80" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="E79" s="50" t="s">
+      <c r="E80" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>78</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G80" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7">
+      <c r="B81" s="10">
         <v>300000678</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C81" s="10">
         <v>300000681</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D81" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E81" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F81" s="8">
         <v>79</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G81" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="10">
-        <v>300000202</v>
-      </c>
-      <c r="C81" s="10">
-        <v>300000401</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E81" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="F81" s="10">
-        <v>80</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7">
       <c r="B82" s="10">
         <v>300000202</v>
       </c>
       <c r="C82" s="10">
+        <v>300000401</v>
+      </c>
+      <c r="D82" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F82" s="10">
+        <v>80</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="10">
+        <v>300000202</v>
+      </c>
+      <c r="C83" s="10">
         <v>300000390</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="E82" s="51" t="s">
+      <c r="E83" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="8">
         <v>81</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G83" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="10">
+    <row r="84" spans="2:7">
+      <c r="B84" s="10">
         <v>300000390</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C84" s="10">
         <v>300132656</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D84" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E84" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>82</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G84" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7">
+      <c r="B85" s="10">
         <v>300000202</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C85" s="10">
         <v>300257640</v>
       </c>
-      <c r="D84" s="51" t="s">
+      <c r="D85" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="E84" s="51" t="s">
+      <c r="E85" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F85" s="8">
         <v>83</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G85" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="10">
+    <row r="86" spans="2:7">
+      <c r="B86" s="10">
         <v>300000201</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C86" s="10">
         <v>300000705</v>
       </c>
-      <c r="D85" s="49" t="s">
+      <c r="D86" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E86" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>84</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="G86" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7">
+      <c r="B87" s="10">
         <v>300000705</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C87" s="10">
         <v>300000750</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D87" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E87" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="8">
         <v>85</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="G87" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="22">
+    <row r="88" spans="2:7" s="21" customFormat="1">
+      <c r="B88" s="22">
         <v>300000705</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C88" s="22">
         <v>300387143</v>
       </c>
-      <c r="D87" s="52" t="s">
+      <c r="D88" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="E87" s="52" t="s">
+      <c r="E88" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>86</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G88" s="21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C88" s="10">
+    <row r="89" spans="2:7">
+      <c r="C89" s="10">
         <v>300004790</v>
       </c>
-      <c r="D88" s="53" t="s">
+      <c r="D89" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="E88" s="53" t="s">
+      <c r="E89" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F89" s="8">
         <v>87</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G89" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="10">
-        <v>300004790</v>
-      </c>
-      <c r="C89" s="10">
-        <v>300008057</v>
-      </c>
-      <c r="D89" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F89" s="10">
-        <v>88</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7">
       <c r="B90" s="10">
         <v>300004790</v>
       </c>
       <c r="C90" s="10">
-        <v>300008063</v>
+        <v>300008057</v>
       </c>
       <c r="D90" s="54" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E90" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="F90" s="8">
-        <v>89</v>
+        <v>266</v>
+      </c>
+      <c r="F90" s="10">
+        <v>88</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91" s="10">
         <v>300004790</v>
       </c>
       <c r="C91" s="10">
+        <v>300008063</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="F91" s="8">
+        <v>89</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="10">
+        <v>300004790</v>
+      </c>
+      <c r="C92" s="10">
         <v>300006073</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D92" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="E91" s="54" t="s">
+      <c r="E92" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <v>90</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G92" s="13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="10">
-        <v>300006073</v>
-      </c>
-      <c r="C92" s="10">
-        <v>300006075</v>
-      </c>
-      <c r="D92" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E92" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F92" s="8">
-        <v>91</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7">
       <c r="B93" s="10">
         <v>300006073</v>
       </c>
       <c r="C93" s="10">
-        <v>300006084</v>
+        <v>300006075</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="F93" s="10">
-        <v>92</v>
+        <v>275</v>
+      </c>
+      <c r="F93" s="8">
+        <v>91</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94" s="10">
         <v>300006073</v>
       </c>
       <c r="C94" s="10">
-        <v>300006165</v>
+        <v>300006084</v>
       </c>
       <c r="D94" s="50" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="F94" s="8">
-        <v>93</v>
+        <v>278</v>
+      </c>
+      <c r="F94" s="10">
+        <v>92</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
       <c r="B95" s="10">
         <v>300006073</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="10">
+        <v>300006165</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F95" s="8">
+        <v>93</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="10">
+        <v>300006073</v>
+      </c>
+      <c r="C96" s="17">
         <v>300006191</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D96" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="E95" s="25" t="s">
+      <c r="E96" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F96" s="10">
         <v>94</v>
       </c>
-      <c r="G95" s="13" t="s">
+      <c r="G96" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="10">
+    <row r="97" spans="2:7">
+      <c r="B97" s="10">
         <v>300004790</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C97" s="10">
         <v>300263489</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D97" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="E96" s="54" t="s">
+      <c r="E97" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F97" s="8">
         <v>95</v>
       </c>
-      <c r="G96" s="13" t="s">
+      <c r="G97" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="10">
+    <row r="98" spans="2:7">
+      <c r="B98" s="10">
         <v>300263489</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C98" s="10">
         <v>300005903</v>
       </c>
-      <c r="D97" s="51" t="s">
+      <c r="D98" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="E97" s="51" t="s">
+      <c r="E98" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F98" s="10">
         <v>96</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="G98" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="22">
+    <row r="99" spans="2:7" s="21" customFormat="1">
+      <c r="B99" s="22">
         <v>300263489</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C99" s="22">
         <v>300120364</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D99" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="E98" s="55" t="s">
+      <c r="E99" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F99" s="8">
         <v>97</v>
       </c>
-      <c r="G98" s="21" t="s">
+      <c r="G99" s="21" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" s="10">
-        <v>300004790</v>
-      </c>
-      <c r="C99" s="10">
-        <v>300005734</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F99" s="10">
-        <v>98</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7">
       <c r="B100" s="10">
         <v>300004790</v>
       </c>
       <c r="C100" s="10">
-        <v>300387025</v>
+        <v>300005734</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F100" s="8">
-        <v>99</v>
+        <v>296</v>
+      </c>
+      <c r="F100" s="10">
+        <v>98</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
       <c r="B101" s="10">
         <v>300004790</v>
       </c>
       <c r="C101" s="10">
+        <v>300387025</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F101" s="8">
+        <v>99</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="10">
+        <v>300004790</v>
+      </c>
+      <c r="C102" s="10">
         <v>300006888</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D102" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E101" s="15" t="s">
+      <c r="E102" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F102" s="10">
         <v>100</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G102" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="10">
+    <row r="103" spans="2:7">
+      <c r="B103" s="10">
         <v>300006888</v>
       </c>
-      <c r="C102" s="20">
+      <c r="C103" s="20">
         <v>300005072</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D103" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="E102" s="51" t="s">
+      <c r="E103" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="F102" s="8">
+      <c r="F103" s="8">
         <v>101</v>
       </c>
-      <c r="G102" s="20" t="s">
+      <c r="G103" s="20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103" s="10">
+    <row r="104" spans="2:7">
+      <c r="B104" s="10">
         <v>300004790</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C104" s="10">
         <v>300006617</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D104" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E104" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F104" s="10">
         <v>102</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G104" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C104" s="10">
+    <row r="105" spans="2:7">
+      <c r="C105" s="10">
         <v>300155846</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D105" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="E104" s="53" t="s">
+      <c r="E105" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F105" s="8">
         <v>103</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="G105" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="10">
+    <row r="106" spans="2:7">
+      <c r="B106" s="10">
         <v>300155846</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C106" s="10">
         <v>300008591</v>
       </c>
-      <c r="D105" s="54" t="s">
+      <c r="D106" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="E105" s="54" t="s">
+      <c r="E106" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F106" s="10">
         <v>104</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G106" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C106" s="6">
+    <row r="107" spans="2:7">
+      <c r="C107" s="6">
         <v>300008072</v>
       </c>
-      <c r="D106" s="56" t="s">
+      <c r="D107" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="E106" s="56" t="s">
+      <c r="E107" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="F106" s="8">
+      <c r="F107" s="8">
         <v>105</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G107" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B107" s="10">
+    <row r="108" spans="2:7">
+      <c r="B108" s="10">
         <v>300008072</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C108" s="10">
         <v>300122438</v>
       </c>
-      <c r="D107" s="57" t="s">
+      <c r="D108" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="E107" s="57" t="s">
+      <c r="E108" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F108" s="10">
         <v>106</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G108" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B108" s="10">
-        <v>300122438</v>
-      </c>
-      <c r="C108" s="10">
-        <v>300008217</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F108" s="8">
-        <v>107</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7">
       <c r="B109" s="10">
         <v>300122438</v>
       </c>
       <c r="C109" s="10">
+        <v>300008217</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F109" s="8">
+        <v>107</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="10">
+        <v>300122438</v>
+      </c>
+      <c r="C110" s="10">
         <v>300265365</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D110" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E109" s="50" t="s">
+      <c r="E110" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F110" s="10">
         <v>108</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="G110" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="10">
-        <v>300265365</v>
-      </c>
-      <c r="C110" s="10">
-        <v>300386595</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="E110" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="F110" s="8">
-        <v>109</v>
-      </c>
-      <c r="G110" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7">
       <c r="B111" s="10">
         <v>300265365</v>
       </c>
       <c r="C111" s="10">
-        <v>300265367</v>
+        <v>300386595</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="F111" s="10">
-        <v>110</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="F111" s="8">
+        <v>109</v>
+      </c>
+      <c r="G111" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
       <c r="B112" s="10">
         <v>300265365</v>
       </c>
       <c r="C112" s="10">
+        <v>300265367</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="F112" s="10">
+        <v>110</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="10">
+        <v>300265365</v>
+      </c>
+      <c r="C113" s="10">
         <v>300265366</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D113" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="E112" s="34" t="s">
+      <c r="E113" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F113" s="8">
         <v>111</v>
       </c>
-      <c r="G112" s="13" t="s">
+      <c r="G113" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B113" s="10">
+    <row r="114" spans="2:7">
+      <c r="B114" s="10">
         <v>300008072</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C114" s="10">
         <v>300008312</v>
       </c>
-      <c r="D113" s="58" t="s">
+      <c r="D114" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="E113" s="58" t="s">
+      <c r="E114" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F114" s="10">
         <v>112</v>
       </c>
-      <c r="G113" s="13" t="s">
+      <c r="G114" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="10">
+    <row r="115" spans="2:7">
+      <c r="B115" s="10">
         <v>300008312</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C115" s="10">
         <v>300008321</v>
       </c>
-      <c r="D114" s="50" t="s">
+      <c r="D115" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="E114" s="50" t="s">
+      <c r="E115" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F115" s="8">
         <v>113</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="G115" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="17">
+    <row r="116" spans="2:7">
+      <c r="B116" s="17">
         <v>300008346</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C116" s="6">
         <v>300132294</v>
       </c>
-      <c r="D115" s="59" t="s">
+      <c r="D116" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E116" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F116" s="10">
         <v>114</v>
       </c>
-      <c r="G115" s="13" t="s">
+      <c r="G116" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="10">
+    <row r="117" spans="2:7">
+      <c r="B117" s="10">
         <v>300132294</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C117" s="10">
         <v>300266060</v>
       </c>
-      <c r="D116" s="57" t="s">
+      <c r="D117" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="E116" s="57" t="s">
+      <c r="E117" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F117" s="8">
         <v>115</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="G117" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B117" s="10">
-        <v>300266060</v>
-      </c>
-      <c r="C117" s="10">
-        <v>300386845</v>
-      </c>
-      <c r="D117" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="F117" s="10">
-        <v>116</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7">
       <c r="B118" s="10">
         <v>300266060</v>
       </c>
       <c r="C118" s="10">
-        <v>300008850</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="F118" s="8">
-        <v>117</v>
+        <v>300386845</v>
+      </c>
+      <c r="D118" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="E118" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="F118" s="10">
+        <v>116</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
       <c r="B119" s="10">
         <v>300266060</v>
       </c>
       <c r="C119" s="10">
-        <v>300008804</v>
+        <v>300008850</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="F119" s="8"/>
-      <c r="G119" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="F119" s="8">
+        <v>117</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
       <c r="B120" s="10">
         <v>300266060</v>
       </c>
-      <c r="C120">
-        <v>300128176</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="F120" s="10">
-        <v>118</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C120" s="10">
+        <v>300008804</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
       <c r="B121" s="10">
         <v>300266060</v>
       </c>
       <c r="C121">
-        <v>300008760</v>
+        <v>300128176</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="F121" s="8">
-        <v>119</v>
+        <v>355</v>
+      </c>
+      <c r="F121" s="10">
+        <v>118</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
       <c r="B122" s="10">
         <v>300266060</v>
       </c>
-      <c r="C122" s="60">
-        <v>300386860</v>
-      </c>
-      <c r="D122" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="E122" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="F122" s="10">
-        <v>120</v>
+      <c r="C122">
+        <v>300008760</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="F122" s="8">
+        <v>119</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
       <c r="B123" s="10">
         <v>300266060</v>
       </c>
-      <c r="C123" s="17">
-        <v>300008916</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="E123" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="F123" s="8">
-        <v>121</v>
+      <c r="C123" s="60">
+        <v>300386860</v>
+      </c>
+      <c r="D123" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="E123" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="F123" s="10">
+        <v>120</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
       <c r="B124" s="10">
         <v>300266060</v>
       </c>
-      <c r="C124">
-        <v>300387498</v>
-      </c>
-      <c r="D124" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="E124" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="F124" s="10">
-        <v>122</v>
+      <c r="C124" s="17">
+        <v>300008916</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="F124" s="8">
+        <v>121</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
       <c r="B125" s="10">
         <v>300266060</v>
       </c>
       <c r="C125">
-        <v>300387499</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="F125" s="8">
-        <v>123</v>
+        <v>300387498</v>
+      </c>
+      <c r="D125" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="E125" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="F125" s="10">
+        <v>122</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
       <c r="B126" s="10">
         <v>300266060</v>
       </c>
       <c r="C126">
-        <v>300008777</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="F126" s="10">
-        <v>124</v>
+        <v>300387499</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F126" s="8">
+        <v>123</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
       <c r="B127" s="10">
         <v>300266060</v>
       </c>
-      <c r="C127" s="10">
-        <v>300008791</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="F127" s="8">
-        <v>125</v>
+      <c r="C127">
+        <v>300008777</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F127" s="10">
+        <v>124</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
       <c r="B128" s="10">
         <v>300266060</v>
       </c>
       <c r="C128" s="10">
-        <v>300386853</v>
+        <v>300008791</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="F128" s="10">
-        <v>126</v>
+        <v>376</v>
+      </c>
+      <c r="F128" s="8">
+        <v>125</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
       <c r="B129" s="10">
         <v>300266060</v>
       </c>
       <c r="C129" s="10">
-        <v>300386831</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="F129" s="8">
-        <v>127</v>
-      </c>
-      <c r="G129" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="H129" s="62"/>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+        <v>300386853</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F129" s="10">
+        <v>126</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
       <c r="B130" s="10">
         <v>300266060</v>
       </c>
       <c r="C130" s="10">
-        <v>300008795</v>
+        <v>300386831</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="F130" s="10">
-        <v>128</v>
+        <v>382</v>
+      </c>
+      <c r="F130" s="8">
+        <v>127</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H130" s="62"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8">
       <c r="B131" s="10">
         <v>300266060</v>
       </c>
-      <c r="C131">
-        <v>300008686</v>
+      <c r="C131" s="10">
+        <v>300008795</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="F131" s="8">
-        <v>129</v>
-      </c>
-      <c r="G131" s="63" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="F131" s="10">
+        <v>128</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="H131" s="62"/>
+    </row>
+    <row r="132" spans="2:8">
       <c r="B132" s="10">
         <v>300266060</v>
       </c>
       <c r="C132">
-        <v>300259572</v>
+        <v>300008686</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F132" s="10">
-        <v>130</v>
-      </c>
-      <c r="G132" s="64" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="F132" s="8">
+        <v>129</v>
+      </c>
+      <c r="G132" s="63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
       <c r="B133" s="10">
         <v>300266060</v>
       </c>
       <c r="C133">
-        <v>300008805</v>
-      </c>
-      <c r="D133" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="E133" s="61" t="s">
-        <v>394</v>
-      </c>
-      <c r="F133" s="8">
-        <v>131</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+        <v>300259572</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F133" s="10">
+        <v>130</v>
+      </c>
+      <c r="G133" s="64" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
       <c r="B134" s="10">
         <v>300266060</v>
       </c>
       <c r="C134">
-        <v>300132339</v>
-      </c>
-      <c r="D134" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="E134" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="F134" s="10">
-        <v>132</v>
+        <v>300008805</v>
+      </c>
+      <c r="D134" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="E134" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="F134" s="8">
+        <v>131</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
       <c r="B135" s="10">
         <v>300266060</v>
       </c>
       <c r="C135">
-        <v>300008761</v>
-      </c>
-      <c r="D135" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="E135" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="F135" s="8">
-        <v>133</v>
+        <v>300132339</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="E135" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="F135" s="10">
+        <v>132</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
       <c r="B136" s="10">
         <v>300266060</v>
       </c>
-      <c r="C136" s="10">
-        <v>300129031</v>
-      </c>
-      <c r="D136" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="E136" s="51" t="s">
-        <v>403</v>
-      </c>
-      <c r="F136" s="10">
-        <v>134</v>
+      <c r="C136">
+        <v>300008761</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E136" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F136" s="8">
+        <v>133</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
       <c r="B137" s="10">
         <v>300266060</v>
       </c>
-      <c r="C137" s="17">
-        <v>300008746</v>
-      </c>
-      <c r="D137" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="E137" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="F137" s="8">
-        <v>135</v>
+      <c r="C137" s="10">
+        <v>300129031</v>
+      </c>
+      <c r="D137" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="E137" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="F137" s="10">
+        <v>134</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
       <c r="B138" s="10">
         <v>300266060</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="17">
+        <v>300008746</v>
+      </c>
+      <c r="D138" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="E138" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="F138" s="8">
+        <v>135</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="10">
+        <v>300266060</v>
+      </c>
+      <c r="C139">
         <v>300386857</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D139" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="E138" s="19" t="s">
+      <c r="E139" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="F138" s="10">
+      <c r="F139" s="10">
         <v>136</v>
       </c>
-      <c r="G138" s="13" t="s">
+      <c r="G139" s="13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="10">
+    <row r="140" spans="2:8">
+      <c r="B140" s="10">
         <v>300132294</v>
       </c>
-      <c r="C139" s="67">
+      <c r="C140" s="67">
         <v>300266059</v>
       </c>
-      <c r="D139" s="58" t="s">
+      <c r="D140" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="E139" s="58" t="s">
+      <c r="E140" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="F139" s="8">
+      <c r="F140" s="8">
         <v>137</v>
       </c>
-      <c r="G139" s="13" t="s">
+      <c r="G140" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="20">
-        <v>300266059</v>
-      </c>
-      <c r="C140">
-        <v>300008678</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="F140" s="10">
-        <v>138</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8">
       <c r="B141" s="20">
         <v>300266059</v>
       </c>
       <c r="C141">
+        <v>300008678</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="F141" s="10">
+        <v>138</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="20">
+        <v>300266059</v>
+      </c>
+      <c r="C142">
         <v>300132312</v>
       </c>
-      <c r="D141" s="28" t="s">
+      <c r="D142" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="E141" s="28" t="s">
+      <c r="E142" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="F141" s="8">
+      <c r="F142" s="8">
         <v>139</v>
       </c>
-      <c r="G141" s="13" t="s">
+      <c r="G142" s="13" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142">
-        <v>300132312</v>
-      </c>
-      <c r="C142">
-        <v>300008707</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="F142" s="10">
-        <v>140</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8">
       <c r="B143">
         <v>300132312</v>
       </c>
       <c r="C143">
-        <v>300008736</v>
-      </c>
-      <c r="D143" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="E143" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="F143" s="8">
-        <v>141</v>
+        <v>300008707</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F143" s="10">
+        <v>140</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
       <c r="B144">
         <v>300132312</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144">
+        <v>300008736</v>
+      </c>
+      <c r="D144" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="F144" s="8">
+        <v>141</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145">
+        <v>300132312</v>
+      </c>
+      <c r="C145" s="10">
         <v>300008697</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D145" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E145" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="F144" s="10">
+      <c r="F145" s="10">
         <v>142</v>
       </c>
-      <c r="G144" s="13" t="s">
+      <c r="G145" s="13" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145" s="20">
-        <v>300266059</v>
-      </c>
-      <c r="C145" s="17">
-        <v>300008899</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="F145" s="8">
-        <v>143</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7">
       <c r="B146" s="20">
         <v>300266059</v>
       </c>
-      <c r="C146">
-        <v>300132316</v>
+      <c r="C146" s="17">
+        <v>300008899</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="F146" s="10">
-        <v>144</v>
+        <v>426</v>
+      </c>
+      <c r="F146" s="8">
+        <v>143</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
       <c r="B147" s="20">
         <v>300266059</v>
       </c>
       <c r="C147">
-        <v>300132315</v>
+        <v>300132316</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="F147" s="8">
-        <v>145</v>
+        <v>429</v>
+      </c>
+      <c r="F147" s="10">
+        <v>144</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
       <c r="B148" s="20">
         <v>300266059</v>
       </c>
-      <c r="C148" s="17">
-        <v>300008835</v>
+      <c r="C148">
+        <v>300132315</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="F148" s="10">
-        <v>146</v>
+        <v>432</v>
+      </c>
+      <c r="F148" s="8">
+        <v>145</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
       <c r="B149" s="20">
         <v>300266059</v>
       </c>
-      <c r="C149">
-        <v>300008676</v>
+      <c r="C149" s="17">
+        <v>300008835</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="F149" s="8">
-        <v>147</v>
+        <v>435</v>
+      </c>
+      <c r="F149" s="10">
+        <v>146</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
       <c r="B150" s="20">
         <v>300266059</v>
       </c>
-      <c r="C150" s="17">
-        <v>300008679</v>
+      <c r="C150">
+        <v>300008676</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="F150" s="10">
-        <v>148</v>
+        <v>438</v>
+      </c>
+      <c r="F150" s="8">
+        <v>147</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
       <c r="B151" s="20">
         <v>300266059</v>
       </c>
       <c r="C151" s="17">
-        <v>300387217</v>
+        <v>300008679</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="F151" s="8">
-        <v>149</v>
+        <v>441</v>
+      </c>
+      <c r="F151" s="10">
+        <v>148</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
       <c r="B152" s="20">
         <v>300266059</v>
       </c>
       <c r="C152" s="17">
-        <v>300266556</v>
-      </c>
-      <c r="D152" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="E152" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="F152" s="10">
-        <v>150</v>
+        <v>300387217</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="E152" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="F152" s="8">
+        <v>149</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
       <c r="B153" s="20">
         <v>300266059</v>
       </c>
       <c r="C153" s="17">
-        <v>300266558</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="E153" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="F153" s="8">
-        <v>151</v>
+        <v>300266556</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="F153" s="10">
+        <v>150</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
       <c r="B154" s="20">
         <v>300266059</v>
       </c>
-      <c r="C154">
-        <v>300008687</v>
+      <c r="C154" s="17">
+        <v>300266558</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="F154" s="10">
-        <v>152</v>
+        <v>450</v>
+      </c>
+      <c r="F154" s="8">
+        <v>151</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
       <c r="B155" s="20">
         <v>300266059</v>
       </c>
       <c r="C155">
-        <v>300008694</v>
+        <v>300008687</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="F155" s="8">
-        <v>153</v>
+        <v>453</v>
+      </c>
+      <c r="F155" s="10">
+        <v>152</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
       <c r="B156" s="20">
         <v>300266059</v>
       </c>
-      <c r="C156" s="17">
-        <v>300266571</v>
+      <c r="C156">
+        <v>300008694</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="F156" s="10">
-        <v>154</v>
+        <v>456</v>
+      </c>
+      <c r="F156" s="8">
+        <v>153</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
       <c r="B157" s="20">
         <v>300266059</v>
       </c>
-      <c r="C157" s="68">
-        <v>300008680</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="F157" s="8">
-        <v>155</v>
+      <c r="C157" s="17">
+        <v>300266571</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="F157" s="10">
+        <v>154</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
       <c r="B158" s="20">
         <v>300266059</v>
       </c>
-      <c r="C158" s="10">
-        <v>300387029</v>
-      </c>
-      <c r="D158" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="E158" s="51" t="s">
-        <v>465</v>
-      </c>
-      <c r="F158" s="10">
-        <v>156</v>
+      <c r="C158" s="68">
+        <v>300008680</v>
+      </c>
+      <c r="D158" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F158" s="8">
+        <v>155</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
       <c r="B159" s="20">
         <v>300266059</v>
       </c>
       <c r="C159" s="10">
+        <v>300387029</v>
+      </c>
+      <c r="D159" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="F159" s="10">
+        <v>156</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="20">
+        <v>300266059</v>
+      </c>
+      <c r="C160" s="10">
         <v>300185707</v>
       </c>
-      <c r="D159" s="28" t="s">
+      <c r="D160" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="E159" s="28" t="s">
+      <c r="E160" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="F159" s="8">
+      <c r="F160" s="8">
         <v>157</v>
       </c>
-      <c r="G159" s="13" t="s">
+      <c r="G160" s="13" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="160" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="17">
+    <row r="161" spans="2:7" s="21" customFormat="1">
+      <c r="B161" s="17">
         <v>300008346</v>
       </c>
-      <c r="C160" s="38">
+      <c r="C161" s="38">
         <v>300008932</v>
       </c>
-      <c r="D160" s="69" t="s">
+      <c r="D161" s="69" t="s">
         <v>470</v>
       </c>
-      <c r="E160" s="69" t="s">
+      <c r="E161" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="F160" s="10">
+      <c r="F161" s="10">
         <v>158</v>
       </c>
-      <c r="G160" s="21" t="s">
+      <c r="G161" s="21" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B161" s="38">
+    <row r="162" spans="2:7">
+      <c r="B162" s="38">
         <v>300008932</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C162" s="10">
         <v>300008686</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="D162" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E162" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="F161" s="8">
+      <c r="F162" s="8">
         <v>159</v>
       </c>
-      <c r="G161" s="13" t="s">
+      <c r="G162" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F162" s="10"/>
+    <row r="163" spans="2:7">
+      <c r="F163" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
